--- a/Définitions.xlsx
+++ b/Définitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\SIO\MATIERES\CEJM\Cours perso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C339EE-1944-4C8E-8FFA-1CEAFEF3D33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F89BAC3-8BF6-454B-A5EB-29E0961B664B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15840" xr2:uid="{7F4252EA-14AE-4B27-985E-6C63092503D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F4252EA-14AE-4B27-985E-6C63092503D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1867,55 +1867,21 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor rgb="FF33CCCC"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1930,82 +1896,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF99CC"/>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF6699"/>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF3399"/>
-          <bgColor rgb="FFFF3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -2082,6 +1972,130 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF6699"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF3399"/>
+          <bgColor rgb="FFFF3399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor rgb="FF009999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor rgb="FF009999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor rgb="FF33CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor rgb="FFFF9999"/>
         </patternFill>
@@ -2094,54 +2108,40 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="6" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Style de tableau 1" pivot="0" count="0" xr9:uid="{D6540010-D26F-4284-A3E7-3CE4BBC46D76}"/>
     <tableStyle name="Style de tableau 2" pivot="0" count="1" xr9:uid="{81237FB6-FDC9-4B6E-A54D-8AE7794C71F3}">
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+    </tableStyle>
+    <tableStyle name="Style de tableau 3" pivot="0" count="1" xr9:uid="{702CFF1F-1696-48CB-A67F-B68F8226B13B}">
       <tableStyleElement type="wholeTable" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="Style de tableau 3" pivot="0" count="1" xr9:uid="{702CFF1F-1696-48CB-A67F-B68F8226B13B}">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-    </tableStyle>
     <tableStyle name="TableStyleMedium2 2" pivot="0" count="6" xr9:uid="{6AA79CFA-A7AA-45E2-9C74-1A0F95658CD0}">
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="totalRow" dxfId="6"/>
-      <tableStyleElement type="firstColumn" dxfId="5"/>
-      <tableStyleElement type="lastColumn" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="totalRow" dxfId="23"/>
+      <tableStyleElement type="firstColumn" dxfId="22"/>
+      <tableStyleElement type="lastColumn" dxfId="21"/>
+      <tableStyleElement type="firstRowStripe" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
     </tableStyle>
     <tableStyle name="TableStyleMedium2 3" pivot="0" count="7" xr9:uid="{3831466F-3D3D-4554-A2E7-B56CDCC7E728}">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="totalRow" dxfId="13"/>
-      <tableStyleElement type="firstColumn" dxfId="12"/>
-      <tableStyleElement type="lastColumn" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="totalRow" dxfId="16"/>
+      <tableStyleElement type="firstColumn" dxfId="15"/>
+      <tableStyleElement type="lastColumn" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="12"/>
     </tableStyle>
     <tableStyle name="TableStyleMedium3 2" pivot="0" count="7" xr9:uid="{A4C307B7-2401-4A47-A947-FAF10DE741F0}">
-      <tableStyleElement type="wholeTable" dxfId="23"/>
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="totalRow" dxfId="21"/>
-      <tableStyleElement type="firstColumn" dxfId="20"/>
-      <tableStyleElement type="lastColumn" dxfId="19"/>
-      <tableStyleElement type="firstRowStripe" dxfId="18"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="17"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="lastColumn" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2180,7 +2180,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62ED020C-EF66-4018-AE39-ABDB62422072}" name="Tableau2" displayName="Tableau2" ref="A51:B99" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62ED020C-EF66-4018-AE39-ABDB62422072}" name="Tableau2" displayName="Tableau2" ref="A51:B99" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A51:B99" xr:uid="{62ED020C-EF66-4018-AE39-ABDB62422072}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{61ED5064-A5B4-49BA-8FF8-37A5FF6D5BDF}" name="THEME 2"/>
@@ -2195,14 +2195,14 @@
   <autoFilter ref="A102:B159" xr:uid="{1A076994-66A2-4F3C-8255-7B15F15039E6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{26FEF9DD-CBE2-4807-925A-77DA1256530E}" name="THEME 3"/>
-    <tableColumn id="2" xr3:uid="{C5022FC1-4FFC-44C5-BFBA-68F98D6CE7A5}" name="Définitions" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{C5022FC1-4FFC-44C5-BFBA-68F98D6CE7A5}" name="Définitions" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{257CB664-9EA4-494B-9594-EFBA30F11D19}" name="Tableau5" displayName="Tableau5" ref="A162:B223" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{257CB664-9EA4-494B-9594-EFBA30F11D19}" name="Tableau5" displayName="Tableau5" ref="A162:B223" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A162:B223" xr:uid="{257CB664-9EA4-494B-9594-EFBA30F11D19}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4EBE2C56-F94F-402E-919D-B4D53E68AC8D}" name="THEME 4"/>
@@ -2533,10 +2533,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4780B136-F23D-42C8-A7BE-A89A1A73A229}">
   <dimension ref="A1:B307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A266" sqref="A266"/>
-      <selection pane="topRight" activeCell="B295" sqref="B295"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
